--- a/Images Location.xlsx
+++ b/Images Location.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ProgrammingPractice\FrontendMentor\react_audiophile_ecommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2390E2A0-FFCC-48A5-9EA5-C2F64090DF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1EA8E9-3AB8-463E-B218-3A9FC34729BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23385" windowHeight="16200" xr2:uid="{45C15EB8-3022-49E8-AF55-4694D8BD34C9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="16200" activeTab="1" xr2:uid="{45C15EB8-3022-49E8-AF55-4694D8BD34C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage" sheetId="1" r:id="rId1"/>
+    <sheet name="Category" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Mobile</t>
   </si>
@@ -63,13 +64,76 @@
   </si>
   <si>
     <t>https://audiophille.s3.ap-southeast-1.amazonaws.com/HomePage/XX91M1/xx99M1_desktop.png</t>
+  </si>
+  <si>
+    <t>XX91M2</t>
+  </si>
+  <si>
+    <t>https://audiophille.s3.ap-southeast-1.amazonaws.com/HomePage/XX91M2/headphone-category-Mobile.jpg</t>
+  </si>
+  <si>
+    <t>https://audiophille.s3.ap-southeast-1.amazonaws.com/HomePage/XX91M2/headphone-category-tablet.jpg</t>
+  </si>
+  <si>
+    <t>https://audiophille.s3.ap-southeast-1.amazonaws.com/HomePage/XX91M2/headphone-category-desktop.jpg</t>
+  </si>
+  <si>
+    <t>https://audiophille.s3.ap-southeast-1.amazonaws.com/HomePage/XX91M1/category/xx92m1_category_mobile.jpg</t>
+  </si>
+  <si>
+    <t>https://audiophille.s3.ap-southeast-1.amazonaws.com/HomePage/XX91M1/category/xx92m1_category_tablet.jpg</t>
+  </si>
+  <si>
+    <t>https://audiophille.s3.ap-southeast-1.amazonaws.com/HomePage/XX91M1/category/xx92m1_category_desktop.jpg</t>
+  </si>
+  <si>
+    <t>XX59</t>
+  </si>
+  <si>
+    <t>https://audiophille.s3.ap-southeast-1.amazonaws.com/HomePage/XX59/xx59_category_desktop.jpg</t>
+  </si>
+  <si>
+    <t>https://audiophille.s3.ap-southeast-1.amazonaws.com/HomePage/XX59/xx59_category_tablet.jpg</t>
+  </si>
+  <si>
+    <t>https://audiophille.s3.ap-southeast-1.amazonaws.com/HomePage/XX59/xx59_category_mobile.jpg</t>
+  </si>
+  <si>
+    <t>Heaphones</t>
+  </si>
+  <si>
+    <t>Speakers</t>
+  </si>
+  <si>
+    <t>zx7</t>
+  </si>
+  <si>
+    <t>https://audiophille.s3.ap-southeast-1.amazonaws.com/HomePage/ZX7Speaker/category/zx7_category_desktop.jpg</t>
+  </si>
+  <si>
+    <t>https://audiophille.s3.ap-southeast-1.amazonaws.com/HomePage/ZX7Speaker/category/zx7_category_mobile.jpg</t>
+  </si>
+  <si>
+    <t>https://audiophille.s3.ap-southeast-1.amazonaws.com/HomePage/ZX7Speaker/category/zx7_category_tablet.jpg</t>
+  </si>
+  <si>
+    <t>zx9</t>
+  </si>
+  <si>
+    <t>https://audiophille.s3.ap-southeast-1.amazonaws.com/HomePage/ZX9Speaker/category/zx9_category_mobile.jpg</t>
+  </si>
+  <si>
+    <t>https://audiophille.s3.ap-southeast-1.amazonaws.com/HomePage/ZX9Speaker/category/zx9_category_tablet.jpg</t>
+  </si>
+  <si>
+    <t>https://audiophille.s3.ap-southeast-1.amazonaws.com/HomePage/ZX9Speaker/category/zx9_category_desktop.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +148,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,9 +177,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -427,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86D5F20-61D8-4A1D-87A6-47046B59A218}">
   <dimension ref="A2:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -479,4 +561,129 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BCD76B-5283-48C5-981B-AC20BE630DE5}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38" style="3" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{9F2AF7C4-EC07-4E63-B587-4B735F4C7C67}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{2E85CAF5-A9B0-4DDE-A32E-E1CE0A003A1F}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{D51A14D8-9FD9-4A98-9EF0-CCF68F7579AC}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{E05F161C-16F8-45F5-82AA-EE75CC10AB35}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{CF46C16F-A4FD-4863-839A-004A585D4842}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
+</worksheet>
 </file>